--- a/final Sprint 2 backlog & product backlog overview.xlsx
+++ b/final Sprint 2 backlog & product backlog overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -115,16 +115,10 @@
     <t>Het spel bevat 2D graphics om de spelers, de toren, de vragen en de dobbelstenen te laten zien</t>
   </si>
   <si>
-    <t>Het spel moet 20 vragen bevatten in elke catagorie, die kunnen worden beantwoord om punten te scoren</t>
-  </si>
-  <si>
     <t>Het spel heeft highscores opgeslagen in een database en deze zijn te zien via het menu</t>
   </si>
   <si>
     <t>Het spel moet laten zien we er aan de beurt is</t>
-  </si>
-  <si>
-    <t>Het spel moet een dobbelsteen bevatten die gerold kan worden, zodat spelers vooruit kunnen bewegen</t>
   </si>
   <si>
     <t>Het spel moet spelers laten dobbelen aan het begin, om te bepalen wie er begint en in welke catagorie</t>
@@ -172,7 +166,31 @@
     <t>Het spel moet instructies bevatten zodat het makkelijker te begrijpen is.</t>
   </si>
   <si>
-    <t>Het spel moet door 4 spelers kunnen worden gespeeld op dezelfde computer</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Speelbaar door 4 spelers</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Vragen worden beantwoord voor punten</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Laat rollen van dobbelsteen zien, en beweeg speler op basis daarvan.</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -233,7 +251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +267,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3366FF"/>
-        <bgColor rgb="FF3366FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
@@ -393,9 +405,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +412,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -685,11 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -703,10 +715,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="9"/>
@@ -731,9 +743,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25"/>
       <c r="F2" s="9"/>
       <c r="G2" s="2"/>
       <c r="H2" s="10"/>
@@ -754,7 +768,9 @@
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="2"/>
@@ -776,7 +792,9 @@
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="2"/>
@@ -798,7 +816,9 @@
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="2"/>
@@ -815,12 +835,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="2"/>
@@ -837,12 +859,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="2"/>
@@ -859,12 +883,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="9"/>
       <c r="G8" s="2"/>
@@ -881,12 +907,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="9"/>
       <c r="G9" s="2"/>
@@ -903,12 +931,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="2"/>
@@ -925,12 +955,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="9"/>
       <c r="G11" s="2"/>
@@ -947,12 +979,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="9"/>
       <c r="G12" s="2"/>
@@ -969,12 +1003,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
@@ -991,12 +1027,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="2"/>
@@ -1013,12 +1051,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
@@ -1053,7 +1093,9 @@
       <c r="C17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
@@ -1070,12 +1112,14 @@
         <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -1097,7 +1141,9 @@
       <c r="C19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -1119,7 +1165,9 @@
       <c r="C20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -1141,7 +1189,9 @@
       <c r="C21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -1163,7 +1213,9 @@
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -1185,7 +1237,9 @@
       <c r="C23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -1207,7 +1261,9 @@
       <c r="C24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -1229,7 +1285,9 @@
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -16855,7 +16913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -16870,10 +16928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -17024,7 +17082,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>8</v>
@@ -17033,10 +17091,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -17060,11 +17118,11 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>8</v>
@@ -17073,10 +17131,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -17100,11 +17158,11 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>7</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>8</v>
@@ -17113,10 +17171,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
